--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -9,12 +9,15 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
     <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSets 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include ValueSets 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include ValueSets 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,10 +94,19 @@
     <t>ValueSet URL</t>
   </si>
   <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_JXXX-DepartementOM-ROR/FHIR/JDV-JXXX-DepartementOM-ROR</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J223-TypeDivisionTerritoriale-ROR/FHIR/JDV-J223-TypeDivisionTerritoriale-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_JXXX-TerritoireSante-ROR/FHIR/JDV-JXXX-TerritoireSante-ROR</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_JXXX-Pays-ROR/FHIR/JDV-JXXX-Pays-ROR</t>
   </si>
 </sst>
 </file>
@@ -399,4 +411,85 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,16 +97,16 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXXX-DepartementOM-ROR/FHIR/JDV-JXXX-DepartementOM-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J248-DepartementOM-ROR/FHIR/JDV-J248-DepartementOM-ROR</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXXX-TerritoireSante-ROR/FHIR/JDV-JXXX-TerritoireSante-ROR</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXXX-Pays-ROR/FHIR/JDV-JXXX-Pays-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J249-TerritoireSante-ROR/FHIR/JDV-J249-TerritoireSante-ROR</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J247-Pays-ROR/FHIR/JDV-J247-Pays-ROR</t>
   </si>
 </sst>
 </file>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/ValueSet/code-region-territorial-division</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/ValueSet/code-region-territorial-division</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
+++ b/ig/majKereval/ValueSet-code-region-territorial-division.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
